--- a/xlsx/知识管理_intext.xlsx
+++ b/xlsx/知识管理_intext.xlsx
@@ -15,105 +15,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
   <si>
     <t>知识管理</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>信息管理</t>
+  </si>
+  <si>
+    <t>政策_政策_管理_知识管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%A9%E5%86%99</t>
+  </si>
+  <si>
+    <t>缩写</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
+  </si>
+  <si>
+    <t>知识</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E8%AF%86</t>
+  </si>
+  <si>
+    <t>认识</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%A1%AF%E7%9F%A5%E8%AD%98</t>
+  </si>
+  <si>
+    <t>外显知识</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E6%80%A7%E7%9F%A5%E8%AD%98</t>
+  </si>
+  <si>
+    <t>隐性知识</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E4%B9%A0%E5%9E%8B%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>学习型组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>企业文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80</t>
+  </si>
+  <si>
+    <t>资讯科技</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%8B%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>人事管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>知识管理系统</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>信息管理</t>
-  </si>
-  <si>
-    <t>政策_政策_管理_知识管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%A9%E5%86%99</t>
-  </si>
-  <si>
-    <t>缩写</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
-  </si>
-  <si>
-    <t>知识</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
-  </si>
-  <si>
-    <t>經驗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E8%AF%86</t>
-  </si>
-  <si>
-    <t>认识</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%A1%AF%E7%9F%A5%E8%AD%98</t>
-  </si>
-  <si>
-    <t>外顯知識</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E6%80%A7%E7%9F%A5%E8%AD%98</t>
-  </si>
-  <si>
-    <t>隱性知識</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E4%B9%A0%E5%9E%8B%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>学习型组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>企業文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80</t>
-  </si>
-  <si>
-    <t>資訊科技</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%8B%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>人事管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>維基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>互聯網</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>知識管理系統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>商業管理</t>
+    <t>商业管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%B3%BB%E7%BB%9F</t>
@@ -167,25 +170,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
   </si>
   <si>
-    <t>目標</t>
+    <t>目标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>組織學習</t>
+    <t>组织学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>資料</t>
+    <t>资料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A</t>
   </si>
   <si>
-    <t>資訊</t>
+    <t>资讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7</t>
@@ -197,19 +200,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%90%E6%80%A7%E7%9F%A5%E8%AF%86</t>
   </si>
   <si>
-    <t>隐性知识</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E5%BA%AB</t>
   </si>
   <si>
-    <t>知識庫</t>
+    <t>知识库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B4%A0%E9%A4%8A</t>
   </si>
   <si>
-    <t>資訊素養</t>
+    <t>资讯素养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%86%E6%9E%B6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E7%B5%84%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>群組軟體</t>
+    <t>群组软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%80%A7%E8%BD%AF%E4%BB%B6</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%A2%E5%93%81%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>新產品開發</t>
+    <t>新产品开发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%AE%B6</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>社交網絡</t>
+    <t>社交网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F</t>
   </si>
   <si>
-    <t>創意</t>
+    <t>创意</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IAEA</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>創新</t>
+    <t>创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%A0%E8%AA%A0</t>
   </si>
   <si>
-    <t>忠誠</t>
+    <t>忠诚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83</t>
@@ -347,9 +347,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>企业文化</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%95%86</t>
   </si>
   <si>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%99%BC</t>
   </si>
   <si>
-    <t>研發</t>
+    <t>研发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A</t>
@@ -413,21 +410,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%80%A7%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>社會性網絡</t>
+    <t>社会性网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E7%9C%BE%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>分眾分類法</t>
+    <t>分众分类法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86%E7%B3%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>知识管理系统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
   </si>
   <si>
@@ -473,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%B7%9A%E4%B8%8A%E9%9B%BB%E8%85%A6%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>自由線上電腦詞典</t>
+    <t>自由线上电脑词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
@@ -497,13 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>Template talk-知識管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>知識管理</t>
+    <t>Template talk-知识管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Personal_knowledge_management</t>
@@ -521,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>智慧資本</t>
+    <t>智慧资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E7%9F%A5%E8%AF%86%E5%AE%98</t>
@@ -533,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E6%99%BA%E6%85%A7</t>
   </si>
   <si>
-    <t>集體智慧</t>
+    <t>集体智慧</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Enterprise_content_management</t>
@@ -551,15 +539,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E8%B8%90%E7%A4%BE%E7%BE%A4</t>
   </si>
   <si>
-    <t>實踐社群</t>
+    <t>实践社群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Knowledge_Management_Research_and_Practice</t>
   </si>
   <si>
@@ -623,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Capability_management</t>
@@ -635,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -659,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -713,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -725,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -749,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -827,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -845,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E7%AE%A1%E7%90%86</t>
@@ -887,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -899,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -935,25 +920,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -983,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -1001,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -1031,13 +1016,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -1097,13 +1082,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Control_(management)</t>
@@ -1169,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1181,7 +1166,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
@@ -2013,10 +2004,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2042,10 +2033,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -2071,10 +2062,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2100,10 +2091,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2129,10 +2120,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2158,10 +2149,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2187,10 +2178,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2216,10 +2207,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2245,10 +2236,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2274,10 +2265,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2303,10 +2294,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -2332,10 +2323,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2361,10 +2352,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G29" t="n">
         <v>13</v>
@@ -2390,10 +2381,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
@@ -2419,10 +2410,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -3147,7 +3138,7 @@
         <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3173,10 +3164,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3202,10 +3193,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3231,10 +3222,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3260,10 +3251,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>8</v>
@@ -3289,10 +3280,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3318,10 +3309,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>68</v>
@@ -3347,10 +3338,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -3376,10 +3367,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3405,10 +3396,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3434,13 +3425,13 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
       </c>
-      <c r="F66" t="s">
-        <v>130</v>
-      </c>
       <c r="G66" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3463,10 +3454,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3492,10 +3483,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3521,10 +3512,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
@@ -3550,10 +3541,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3579,10 +3570,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3608,10 +3599,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3637,10 +3628,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3666,10 +3657,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3695,10 +3686,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3724,10 +3715,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3753,10 +3744,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3782,10 +3773,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3811,10 +3802,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3840,10 +3831,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3869,10 +3860,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>9</v>
@@ -3898,13 +3889,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -3927,13 +3918,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -3956,13 +3947,13 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -3985,13 +3976,13 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -4014,10 +4005,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4043,10 +4034,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4072,10 +4063,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4101,10 +4092,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4130,13 +4121,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -4159,13 +4150,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4188,13 +4179,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4217,13 +4208,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -4246,10 +4237,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4275,10 +4266,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4304,10 +4295,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4333,13 +4324,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -4362,13 +4353,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4391,10 +4382,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4420,10 +4411,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4449,13 +4440,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4478,13 +4469,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4507,13 +4498,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4536,13 +4527,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -4565,10 +4556,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4594,10 +4585,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4623,10 +4614,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4652,10 +4643,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4681,10 +4672,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4710,13 +4701,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -4739,13 +4730,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4768,10 +4759,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4797,13 +4788,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -4826,13 +4817,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -4855,13 +4846,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -4884,13 +4875,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4913,10 +4904,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4942,10 +4933,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4971,10 +4962,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5000,10 +4991,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5029,10 +5020,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5058,10 +5049,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5087,10 +5078,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5116,10 +5107,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5145,10 +5136,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5174,10 +5165,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5203,10 +5194,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5232,10 +5223,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5261,13 +5252,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5290,13 +5281,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5319,10 +5310,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5348,10 +5339,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5377,10 +5368,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5406,10 +5397,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5435,10 +5426,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5464,10 +5455,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5493,10 +5484,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5522,10 +5513,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5551,13 +5542,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5580,13 +5571,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5609,10 +5600,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5638,10 +5629,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5667,10 +5658,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5696,10 +5687,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5725,10 +5716,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5754,10 +5745,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5783,10 +5774,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5812,13 +5803,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -5841,13 +5832,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -5870,10 +5861,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5899,10 +5890,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5928,10 +5919,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5957,10 +5948,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5986,13 +5977,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6015,13 +6006,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6044,10 +6035,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6073,10 +6064,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6102,13 +6093,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6131,13 +6122,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6160,10 +6151,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6189,10 +6180,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6218,10 +6209,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6247,13 +6238,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6276,13 +6267,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -6305,10 +6296,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6334,10 +6325,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6363,10 +6354,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6392,10 +6383,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6421,10 +6412,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6450,10 +6441,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6479,10 +6470,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6508,10 +6499,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6537,10 +6528,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6566,10 +6557,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6595,10 +6586,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6624,10 +6615,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6653,10 +6644,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6682,10 +6673,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>189</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6711,10 +6702,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>193</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6740,10 +6731,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6769,13 +6760,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -6798,13 +6789,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -6827,10 +6818,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6856,10 +6847,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6885,10 +6876,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6914,10 +6905,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6943,10 +6934,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6972,10 +6963,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7001,10 +6992,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7030,10 +7021,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7059,10 +7050,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7088,10 +7079,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7117,10 +7108,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7146,13 +7137,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7175,13 +7166,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7204,10 +7195,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7233,18 +7224,47 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>31</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
       </c>
       <c r="I197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>197</v>
+      </c>
+      <c r="E198" t="s">
+        <v>31</v>
+      </c>
+      <c r="F198" t="s">
+        <v>385</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+      <c r="H198" t="s">
+        <v>4</v>
+      </c>
+      <c r="I198" t="n">
         <v>3</v>
       </c>
     </row>
